--- a/Others/Sim Saler Retailer List.xlsx
+++ b/Others/Sim Saler Retailer List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="675">
   <si>
     <t>RETAILER_CODE</t>
   </si>
@@ -2041,6 +2041,9 @@
   </si>
   <si>
     <t>Sim Saler Retailer List</t>
+  </si>
+  <si>
+    <t>Search Area</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,6 +2085,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2138,11 +2153,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -2432,10 +2468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:K320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J2:K4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2445,10 +2482,11 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>673</v>
       </c>
@@ -2457,7 +2495,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2507,8 +2545,15 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="G4" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2524,8 +2569,13 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2542,7 +2592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2559,7 +2609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2576,7 +2626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2593,7 +2643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2610,7 +2660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2678,7 +2728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -7886,9 +7936,16 @@
   <autoFilter ref="A2:E320">
     <filterColumn colId="2"/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:E320">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H$4=A3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Others/Sim Saler Retailer List.xlsx
+++ b/Others/Sim Saler Retailer List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="675">
   <si>
     <t>RETAILER_CODE</t>
   </si>
@@ -2153,24 +2153,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2545,13 +2538,15 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -2569,11 +2564,11 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -7942,7 +7937,7 @@
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E320">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H$4=A3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Others/Sim Saler Retailer List.xlsx
+++ b/Others/Sim Saler Retailer List.xlsx
@@ -2465,13 +2465,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>

--- a/Others/Sim Saler Retailer List.xlsx
+++ b/Others/Sim Saler Retailer List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="660" windowWidth="19575" windowHeight="7125"/>
@@ -2049,8 +2049,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2173,6 +2173,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2251,6 +2256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2285,6 +2291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2460,15 +2467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" hidden="1" customWidth="1"/>
@@ -2479,7 +2487,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" customHeight="1">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>673</v>
       </c>
@@ -2488,7 +2496,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2556,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2570,7 +2578,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2604,7 +2612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -2791,7 +2799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -2910,7 +2918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -2927,7 +2935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -2995,7 +3003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -3029,7 +3037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
@@ -3046,7 +3054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
@@ -3063,7 +3071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -3080,7 +3088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
@@ -3115,7 +3123,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>96</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
@@ -3183,7 +3191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
@@ -3234,7 +3242,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>109</v>
       </c>
@@ -3251,7 +3259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>113</v>
       </c>
@@ -3268,7 +3276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>115</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>117</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>119</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>122</v>
       </c>
@@ -3336,7 +3344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>124</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
@@ -3371,7 +3379,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>129</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>131</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>133</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>137</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>140</v>
       </c>
@@ -3473,7 +3481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>142</v>
       </c>
@@ -3490,7 +3498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>145</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>147</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>150</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>152</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>154</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>156</v>
       </c>
@@ -3592,7 +3600,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>158</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>160</v>
       </c>
@@ -3626,7 +3634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>162</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>164</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>166</v>
       </c>
@@ -3677,7 +3685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>168</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>173</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>175</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>178</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>180</v>
       </c>
@@ -3779,7 +3787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>182</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>184</v>
       </c>
@@ -3813,7 +3821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>186</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>188</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>190</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>192</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>194</v>
       </c>
@@ -3898,7 +3906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>196</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>198</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>200</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>202</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>204</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>207</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>210</v>
       </c>
@@ -4017,7 +4025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>212</v>
       </c>
@@ -4034,7 +4042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>214</v>
       </c>
@@ -4051,7 +4059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>216</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>218</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>220</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>222</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>224</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>226</v>
       </c>
@@ -4153,7 +4161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>228</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>230</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>233</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>235</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>237</v>
       </c>
@@ -4238,7 +4246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>239</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>242</v>
       </c>
@@ -4272,7 +4280,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>245</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>247</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>249</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>250</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>252</v>
       </c>
@@ -4357,7 +4365,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>254</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>256</v>
       </c>
@@ -4391,7 +4399,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>258</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>260</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>263</v>
       </c>
@@ -4442,7 +4450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>265</v>
       </c>
@@ -4459,7 +4467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>267</v>
       </c>
@@ -4476,7 +4484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>269</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>271</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>273</v>
       </c>
@@ -4527,7 +4535,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>275</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>277</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>279</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>281</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>283</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>285</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>287</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>289</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>291</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>293</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>295</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>297</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>299</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="134" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>301</v>
       </c>
@@ -4765,7 +4773,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>304</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="136" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>306</v>
       </c>
@@ -4799,7 +4807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>308</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>310</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="139" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>312</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="140" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>314</v>
       </c>
@@ -4867,7 +4875,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>316</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>318</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>320</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>322</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>324</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>326</v>
       </c>
@@ -4969,7 +4977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="147" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>328</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="148" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>330</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="149" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>332</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="150" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>334</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="151" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>336</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="152" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>338</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="153" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>340</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="154" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>342</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="155" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>344</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>346</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="157" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>348</v>
       </c>
@@ -5156,7 +5164,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="158" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>350</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="159" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>352</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>354</v>
       </c>
@@ -5207,7 +5215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>356</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>357</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>359</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="164" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>361</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>363</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>365</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="167" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>367</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="168" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>369</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>371</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="170" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>373</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="171" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>375</v>
       </c>
@@ -5394,7 +5402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="172" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>377</v>
       </c>
@@ -5411,7 +5419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>379</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="174" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>381</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>383</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>385</v>
       </c>
@@ -5479,7 +5487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>387</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="178" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>389</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="179" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>391</v>
       </c>
@@ -5530,7 +5538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="180" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>393</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="181" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>395</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="182" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>397</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="183" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>399</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="184" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>401</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="185" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>403</v>
       </c>
@@ -5632,7 +5640,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="186" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>405</v>
       </c>
@@ -5649,7 +5657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="187" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>407</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="188" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>409</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="189" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>411</v>
       </c>
@@ -5700,7 +5708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="190" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>413</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="191" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>415</v>
       </c>
@@ -5734,7 +5742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="192" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>417</v>
       </c>
@@ -5751,7 +5759,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="193" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>419</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="194" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>421</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="195" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>423</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>425</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="197" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>427</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="198" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>430</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="199" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>432</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="200" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>434</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="201" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>436</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="202" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>438</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="203" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>440</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="204" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>442</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="205" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>444</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="206" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>446</v>
       </c>
@@ -5989,7 +5997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>448</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="208" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>450</v>
       </c>
@@ -6023,7 +6031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="209" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>452</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="210" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>454</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="211" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>456</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="212" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>458</v>
       </c>
@@ -6091,7 +6099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="213" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>460</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="214" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>462</v>
       </c>
@@ -6125,7 +6133,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="215" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>463</v>
       </c>
@@ -6142,7 +6150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="216" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>465</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="217" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>467</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="218" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>469</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="219" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>471</v>
       </c>
@@ -6210,7 +6218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="220" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>473</v>
       </c>
@@ -6227,7 +6235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="221" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>475</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="222" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>477</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="223" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>479</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="224" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>481</v>
       </c>
@@ -6295,7 +6303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="225" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>483</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="226" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>485</v>
       </c>
@@ -6329,7 +6337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="227" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>487</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="228" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>489</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="229" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>491</v>
       </c>
@@ -6380,7 +6388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="230" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>493</v>
       </c>
@@ -6397,7 +6405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="231" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>495</v>
       </c>
@@ -6414,7 +6422,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="232" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>497</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="233" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>499</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="234" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>500</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="235" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>502</v>
       </c>
@@ -6482,7 +6490,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="236" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>504</v>
       </c>
@@ -6499,7 +6507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="237" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>506</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="238" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>508</v>
       </c>
@@ -6533,7 +6541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="239" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>510</v>
       </c>
@@ -6550,7 +6558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="240" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>512</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="241" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>514</v>
       </c>
@@ -6584,7 +6592,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="242" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>516</v>
       </c>
@@ -6601,7 +6609,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="243" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>519</v>
       </c>
@@ -6618,7 +6626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="244" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>521</v>
       </c>
@@ -6635,7 +6643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="245" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>523</v>
       </c>
@@ -6652,7 +6660,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="246" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>525</v>
       </c>
@@ -6669,7 +6677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="247" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>527</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="248" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>529</v>
       </c>
@@ -6703,7 +6711,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="249" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>531</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="250" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>533</v>
       </c>
@@ -6737,7 +6745,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="251" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>535</v>
       </c>
@@ -6754,7 +6762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="252" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>537</v>
       </c>
@@ -6771,7 +6779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="253" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>539</v>
       </c>
@@ -6788,7 +6796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="254" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>541</v>
       </c>
@@ -6805,7 +6813,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="255" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>543</v>
       </c>
@@ -6822,7 +6830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="256" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>545</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="257" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>547</v>
       </c>
@@ -6856,7 +6864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="258" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>549</v>
       </c>
@@ -6873,7 +6881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="259" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>551</v>
       </c>
@@ -6890,7 +6898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="260" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>553</v>
       </c>
@@ -6907,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="261" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>555</v>
       </c>
@@ -6924,7 +6932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="262" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>557</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="263" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>559</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="264" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>561</v>
       </c>
@@ -6975,7 +6983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="265" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>563</v>
       </c>
@@ -6992,7 +7000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="266" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>565</v>
       </c>
@@ -7009,7 +7017,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="267" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>567</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="268" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>569</v>
       </c>
@@ -7043,7 +7051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="269" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>571</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="270" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>573</v>
       </c>
@@ -7077,7 +7085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="271" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>574</v>
       </c>
@@ -7094,7 +7102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="272" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>576</v>
       </c>
@@ -7111,7 +7119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="273" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>578</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="274" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>580</v>
       </c>
@@ -7145,7 +7153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="275" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>582</v>
       </c>
@@ -7162,7 +7170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="276" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>584</v>
       </c>
@@ -7179,7 +7187,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="277" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>586</v>
       </c>
@@ -7196,7 +7204,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="278" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>588</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="279" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>590</v>
       </c>
@@ -7230,7 +7238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="280" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>592</v>
       </c>
@@ -7247,7 +7255,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="281" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>594</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="282" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>596</v>
       </c>
@@ -7281,7 +7289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="283" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>598</v>
       </c>
@@ -7298,7 +7306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="284" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>600</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="285" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>602</v>
       </c>
@@ -7332,7 +7340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="286" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>604</v>
       </c>
@@ -7349,7 +7357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="287" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>606</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="288" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>608</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="289" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>610</v>
       </c>
@@ -7400,7 +7408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="290" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>612</v>
       </c>
@@ -7417,7 +7425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="291" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>614</v>
       </c>
@@ -7434,7 +7442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="292" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>616</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="293" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>618</v>
       </c>
@@ -7468,7 +7476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="294" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>620</v>
       </c>
@@ -7485,7 +7493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="295" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>622</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="296" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>624</v>
       </c>
@@ -7519,7 +7527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="297" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>626</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="298" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>628</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="299" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>630</v>
       </c>
@@ -7570,7 +7578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="300" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>632</v>
       </c>
@@ -7587,7 +7595,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="301" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>634</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="302" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>635</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="303" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>637</v>
       </c>
@@ -7638,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="304" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>639</v>
       </c>
@@ -7655,7 +7663,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="305" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>641</v>
       </c>
@@ -7672,7 +7680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="306" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>643</v>
       </c>
@@ -7689,7 +7697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="307" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>645</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="308" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>647</v>
       </c>
@@ -7723,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="309" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>649</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="310" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>651</v>
       </c>
@@ -7757,7 +7765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="311" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>653</v>
       </c>
@@ -7774,7 +7782,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="312" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>655</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="313" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>657</v>
       </c>
@@ -7808,7 +7816,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="314" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>659</v>
       </c>
@@ -7825,7 +7833,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="315" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>661</v>
       </c>
@@ -7842,7 +7850,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="316" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>663</v>
       </c>
@@ -7859,7 +7867,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="317" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>665</v>
       </c>
@@ -7876,7 +7884,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="318" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>667</v>
       </c>
@@ -7893,7 +7901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="319" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>669</v>
       </c>
@@ -7910,7 +7918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="320" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>671</v>
       </c>
@@ -7929,7 +7937,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:E320">
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1908446145"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -7947,24 +7959,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Others/Sim Saler Retailer List.xlsx
+++ b/Others/Sim Saler Retailer List.xlsx
@@ -2472,8 +2472,8 @@
   <dimension ref="A1:K320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>119</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>156</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>207</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>216</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>235</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>297</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>346</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>425</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>454</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>460</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>479</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>510</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>525</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>551</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>563</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>569</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>571</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>584</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>649</v>
       </c>
@@ -7939,7 +7939,7 @@
   <autoFilter ref="A2:E320">
     <filterColumn colId="2">
       <filters>
-        <filter val="1908446145"/>
+        <filter val="1908446138"/>
       </filters>
     </filterColumn>
   </autoFilter>
